--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H2">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.6747306715599999</v>
+        <v>5.109305978919999</v>
       </c>
       <c r="R2">
-        <v>6.072576044039999</v>
+        <v>45.98375381028</v>
       </c>
       <c r="S2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="T2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I3">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J3">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>892.6623349696799</v>
       </c>
       <c r="S3">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="T3">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H4">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I4">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J4">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>73.58976212764</v>
+        <v>126.17801467898</v>
       </c>
       <c r="R4">
-        <v>662.30785914876</v>
+        <v>1135.60213211082</v>
       </c>
       <c r="S4">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="T4">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H5">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I5">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J5">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.74044985796</v>
+        <v>2.858637937979999</v>
       </c>
       <c r="R5">
-        <v>15.66404872164</v>
+        <v>25.72774144182</v>
       </c>
       <c r="S5">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="T5">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H6">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I6">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J6">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>34.60744945371999</v>
+        <v>25.80500782089999</v>
       </c>
       <c r="R6">
-        <v>311.46704508348</v>
+        <v>232.2450703881</v>
       </c>
       <c r="S6">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="T6">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H7">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I7">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J7">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>25.91424457027999</v>
+        <v>92.40371432424</v>
       </c>
       <c r="R7">
-        <v>233.22820113252</v>
+        <v>831.63342891816</v>
       </c>
       <c r="S7">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="T7">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
     </row>
   </sheetData>
